--- a/biology/Botanique/Cariniana/Cariniana.xlsx
+++ b/biology/Botanique/Cariniana/Cariniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cariniana est un genre de plantes à fleurs de la famille des Lecythidaceae, comprenant neuf espèces toutes endémiques d'Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (9 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (9 juin 2021) :
 Cariniana domestica (Mart.) Miers (1874)
 Cariniana estrellensis (Raddi) Kuntze (1898)
 Cariniana ianeirensis R.Knuth (1934)
@@ -550,9 +564,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres tropicaux généralement sans contrefort ou avec des contreforts peu développés. Leur écorce est généralement fissurée, et l'écorce interne est rouge. Les feuilles sont eucamptomiques ; leurs nervures sont tertiaires ou réticulées. Les inflorescences sont terminales, rarement axillaires, en racèmes ou en panicules. Les fleurs sont petites, mesurant moins de 10 mm de diamètre, zygomorphes ; elles comptent six sépales et six pétales ; l'androcée est prolongé sur un côté ; l'ovaire est 3-loculaire, les ovules insérés à la base du septum. Les fruits sont cylindriques ou turbinés, le péricarpe ligneux, épais à très épais ; les graines sont avec une aile unilatérale ; l'embryon présente deux cotylédons foliacés[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres tropicaux généralement sans contrefort ou avec des contreforts peu développés. Leur écorce est généralement fissurée, et l'écorce interne est rouge. Les feuilles sont eucamptomiques ; leurs nervures sont tertiaires ou réticulées. Les inflorescences sont terminales, rarement axillaires, en racèmes ou en panicules. Les fleurs sont petites, mesurant moins de 10 mm de diamètre, zygomorphes ; elles comptent six sépales et six pétales ; l'androcée est prolongé sur un côté ; l'ovaire est 3-loculaire, les ovules insérés à la base du septum. Les fruits sont cylindriques ou turbinés, le péricarpe ligneux, épais à très épais ; les graines sont avec une aile unilatérale ; l'embryon présente deux cotylédons foliacés. 
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cariniana est représenté en Mésoamérique, Colombie, Venezuela, Pérou, Bolivie, Brésil et Paraguay[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cariniana est représenté en Mésoamérique, Colombie, Venezuela, Pérou, Bolivie, Brésil et Paraguay.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1842 par l'explorateur et botaniste italien Giovanni Casaretto, qui le nomme Cariniana. Le genre Amphoricarpus Spruce ex Miers est synonyme de Cariniana[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1842 par l'explorateur et botaniste italien Giovanni Casaretto, qui le nomme Cariniana. Le genre Amphoricarpus Spruce ex Miers est synonyme de Cariniana.
 </t>
         </is>
       </c>
